--- a/df_score_y1.xlsx
+++ b/df_score_y1.xlsx
@@ -487,16 +487,16 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0414</v>
+        <v>-0.0431</v>
       </c>
       <c r="C4">
-        <v>9.848699999999999</v>
+        <v>9.8652</v>
       </c>
       <c r="D4">
-        <v>3.1383</v>
+        <v>3.1409</v>
       </c>
       <c r="E4">
-        <v>2.4796</v>
+        <v>2.4768</v>
       </c>
       <c r="F4">
         <v>0.034</v>
@@ -527,19 +527,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.052</v>
+        <v>-0.0524</v>
       </c>
       <c r="C6">
-        <v>9.9497</v>
+        <v>9.9528</v>
       </c>
       <c r="D6">
-        <v>3.1543</v>
+        <v>3.1548</v>
       </c>
       <c r="E6">
-        <v>2.5065</v>
+        <v>2.4961</v>
       </c>
       <c r="F6">
-        <v>0.0344</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -547,16 +547,16 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0003</v>
+        <v>0.0028</v>
       </c>
       <c r="C7">
-        <v>9.8338</v>
+        <v>9.809900000000001</v>
       </c>
       <c r="D7">
-        <v>3.1359</v>
+        <v>3.1321</v>
       </c>
       <c r="E7">
-        <v>2.5161</v>
+        <v>2.5109</v>
       </c>
       <c r="F7">
         <v>0.0342</v>
@@ -567,16 +567,16 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0052</v>
+        <v>-0.0009</v>
       </c>
       <c r="C8">
-        <v>9.8888</v>
+        <v>9.845599999999999</v>
       </c>
       <c r="D8">
-        <v>3.1446</v>
+        <v>3.1378</v>
       </c>
       <c r="E8">
-        <v>2.5038</v>
+        <v>2.5</v>
       </c>
       <c r="F8">
         <v>0.0341</v>
@@ -587,19 +587,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0053</v>
+        <v>-0.0061</v>
       </c>
       <c r="C9">
-        <v>9.785500000000001</v>
+        <v>9.897</v>
       </c>
       <c r="D9">
-        <v>3.1282</v>
+        <v>3.1459</v>
       </c>
       <c r="E9">
-        <v>2.4999</v>
+        <v>2.517</v>
       </c>
       <c r="F9">
-        <v>0.0341</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -607,19 +607,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.076</v>
+        <v>-0.07149999999999999</v>
       </c>
       <c r="C10">
-        <v>10.585</v>
+        <v>10.5409</v>
       </c>
       <c r="D10">
-        <v>3.2535</v>
+        <v>3.2467</v>
       </c>
       <c r="E10">
-        <v>2.5826</v>
+        <v>2.582</v>
       </c>
       <c r="F10">
-        <v>0.0352</v>
+        <v>0.0351</v>
       </c>
     </row>
   </sheetData>

--- a/df_score_y1.xlsx
+++ b/df_score_y1.xlsx
@@ -487,19 +487,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0431</v>
+        <v>-0.0458</v>
       </c>
       <c r="C4">
-        <v>9.8652</v>
+        <v>9.8908</v>
       </c>
       <c r="D4">
-        <v>3.1409</v>
+        <v>3.145</v>
       </c>
       <c r="E4">
-        <v>2.4768</v>
+        <v>2.4708</v>
       </c>
       <c r="F4">
-        <v>0.034</v>
+        <v>0.0339</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -527,19 +527,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0524</v>
+        <v>-0.0517</v>
       </c>
       <c r="C6">
-        <v>9.9528</v>
+        <v>9.9465</v>
       </c>
       <c r="D6">
-        <v>3.1548</v>
+        <v>3.1538</v>
       </c>
       <c r="E6">
-        <v>2.4961</v>
+        <v>2.4986</v>
       </c>
       <c r="F6">
-        <v>0.0342</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -547,19 +547,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0028</v>
+        <v>0.0107</v>
       </c>
       <c r="C7">
-        <v>9.809900000000001</v>
+        <v>9.7317</v>
       </c>
       <c r="D7">
-        <v>3.1321</v>
+        <v>3.1196</v>
       </c>
       <c r="E7">
-        <v>2.5109</v>
+        <v>2.4984</v>
       </c>
       <c r="F7">
-        <v>0.0342</v>
+        <v>0.0341</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -567,19 +567,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0009</v>
+        <v>-0.0172</v>
       </c>
       <c r="C8">
-        <v>9.845599999999999</v>
+        <v>10.0061</v>
       </c>
       <c r="D8">
-        <v>3.1378</v>
+        <v>3.1632</v>
       </c>
       <c r="E8">
-        <v>2.5</v>
+        <v>2.5159</v>
       </c>
       <c r="F8">
-        <v>0.0341</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -587,19 +587,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0061</v>
+        <v>0.0011</v>
       </c>
       <c r="C9">
-        <v>9.897</v>
+        <v>9.826499999999999</v>
       </c>
       <c r="D9">
-        <v>3.1459</v>
+        <v>3.1347</v>
       </c>
       <c r="E9">
-        <v>2.517</v>
+        <v>2.5055</v>
       </c>
       <c r="F9">
-        <v>0.0342</v>
+        <v>0.0341</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -607,19 +607,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07149999999999999</v>
+        <v>-0.0805</v>
       </c>
       <c r="C10">
-        <v>10.5409</v>
+        <v>10.6292</v>
       </c>
       <c r="D10">
-        <v>3.2467</v>
+        <v>3.2603</v>
       </c>
       <c r="E10">
-        <v>2.582</v>
+        <v>2.5847</v>
       </c>
       <c r="F10">
-        <v>0.0351</v>
+        <v>0.0352</v>
       </c>
     </row>
   </sheetData>

--- a/df_score_y1.xlsx
+++ b/df_score_y1.xlsx
@@ -487,19 +487,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0458</v>
+        <v>-0.051</v>
       </c>
       <c r="C4">
-        <v>9.8908</v>
+        <v>9.9396</v>
       </c>
       <c r="D4">
-        <v>3.145</v>
+        <v>3.1527</v>
       </c>
       <c r="E4">
-        <v>2.4708</v>
+        <v>2.4815</v>
       </c>
       <c r="F4">
-        <v>0.0339</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -527,19 +527,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0517</v>
+        <v>-0.0397</v>
       </c>
       <c r="C6">
-        <v>9.9465</v>
+        <v>9.833299999999999</v>
       </c>
       <c r="D6">
-        <v>3.1538</v>
+        <v>3.1358</v>
       </c>
       <c r="E6">
-        <v>2.4986</v>
+        <v>2.4953</v>
       </c>
       <c r="F6">
-        <v>0.0343</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -547,16 +547,16 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0107</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C7">
-        <v>9.7317</v>
+        <v>9.7484</v>
       </c>
       <c r="D7">
-        <v>3.1196</v>
+        <v>3.1222</v>
       </c>
       <c r="E7">
-        <v>2.4984</v>
+        <v>2.5008</v>
       </c>
       <c r="F7">
         <v>0.0341</v>
@@ -567,19 +567,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0172</v>
+        <v>-0.0146</v>
       </c>
       <c r="C8">
-        <v>10.0061</v>
+        <v>9.9809</v>
       </c>
       <c r="D8">
-        <v>3.1632</v>
+        <v>3.1592</v>
       </c>
       <c r="E8">
-        <v>2.5159</v>
+        <v>2.5095</v>
       </c>
       <c r="F8">
-        <v>0.0343</v>
+        <v>0.0341</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -587,19 +587,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0011</v>
+        <v>-0.0052</v>
       </c>
       <c r="C9">
-        <v>9.826499999999999</v>
+        <v>9.8886</v>
       </c>
       <c r="D9">
-        <v>3.1347</v>
+        <v>3.1446</v>
       </c>
       <c r="E9">
-        <v>2.5055</v>
+        <v>2.5158</v>
       </c>
       <c r="F9">
-        <v>0.0341</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -607,19 +607,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0805</v>
+        <v>-0.0759</v>
       </c>
       <c r="C10">
-        <v>10.6292</v>
+        <v>10.5836</v>
       </c>
       <c r="D10">
-        <v>3.2603</v>
+        <v>3.2532</v>
       </c>
       <c r="E10">
-        <v>2.5847</v>
+        <v>2.5751</v>
       </c>
       <c r="F10">
-        <v>0.0352</v>
+        <v>0.035</v>
       </c>
     </row>
   </sheetData>
